--- a/0_Resources/Problems/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/0_Resources/Problems/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Okoko\Desktop\DATA ANALYSIS PROJECT\EXCEL PROJECTS\excel_data_analytics_project\0_Resources\Problems\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F5FEB-D4A0-4E30-9E0C-8AA9F558B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42236D8-CEEF-44EA-9337-07254F3A9826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -564,6 +564,425 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>APPLICANT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SKILL COUNT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Text_Extraction!$I$28:$I$50</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Kafka</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> DataBricks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Spark</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Python</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> GCP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Power BI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Airflow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Hadoop</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> R</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Azure</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Java</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> SQL</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DataBricks</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Snowflake</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Azure</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Kafka</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Excel</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Scala</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Excel</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Power BI</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> Tableau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Text_Extraction!$J$28:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3EC-42AB-BD12-499834AF9205}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="624706760"/>
+        <c:axId val="624699200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="624706760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624699200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624699200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624706760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -936,6 +1355,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1480,7 +1939,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265220C5-BD18-F2D7-E0BB-F98C79178B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1784,33 +2789,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.265625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" customWidth="1"/>
-    <col min="10" max="10" width="34.73046875" customWidth="1"/>
-    <col min="11" max="11" width="8.86328125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.46484375" customWidth="1"/>
-    <col min="14" max="14" width="8.86328125" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="17" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1858,7 +2863,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1882,6 +2887,21 @@
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, F2:G2)</f>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:M2">_xlfn.TEXTSPLIT(B2, " ")</f>
+        <v>Pam</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Beesly</v>
+      </c>
+      <c r="O2" t="str">
+        <f>RIGHT(A2,6)</f>
+        <v>123548</v>
       </c>
       <c r="Q2">
         <f>FIND(",", G2)+LEN(", ")</f>
@@ -1895,8 +2915,20 @@
         <f>MID(G2,Q2,R2-Q2)</f>
         <v>CA</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T2">
+        <f>FIND(",",G2) + LEN(", ")</f>
+        <v>11</v>
+      </c>
+      <c r="U2">
+        <f>FIND(",", G2,T2)</f>
+        <v>13</v>
+      </c>
+      <c r="V2" t="str">
+        <f>MID(G2,T2,2)</f>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1921,20 +2953,47 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J3" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, F3:G3)</f>
+        <v>203 Birch St Chicago, IL, 60601</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" ref="L3:M3">_xlfn.TEXTSPLIT(B3, " ")</f>
+        <v>Michael</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O32" si="0">RIGHT(A3,6)</f>
+        <v>123549</v>
+      </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q21" si="0">FIND(",", G3)+LEN(", ")</f>
+        <f t="shared" ref="Q3:Q21" si="1">FIND(",", G3)+LEN(", ")</f>
         <v>10</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R21" si="1">FIND(",",G3,Q3)</f>
+        <f t="shared" ref="R3:R21" si="2">FIND(",",G3,Q3)</f>
         <v>12</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S21" si="2">MID(G3,Q3,R3-Q3)</f>
+        <f t="shared" ref="S3:S21" si="3">MID(G3,Q3,R3-Q3)</f>
         <v>IL</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T3">
+        <f t="shared" ref="T3:T17" si="4">FIND(",",G3) + LEN(", ")</f>
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U17" si="5">FIND(",", G3,T3)</f>
+        <v>12</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V17" si="6">MID(G3,T3,2)</f>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1959,324 +3018,567 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J3:J54" si="7">_xlfn.TEXTJOIN(" ", TRUE, F4:G4)</f>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4:M4">_xlfn.TEXTSPLIT(B4, " ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>123550</v>
+      </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="3"/>
+        <v>IL</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="6"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>45173.302187499998</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="7"/>
+        <v>457 Oak St San Jose, CA, 95101</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" ref="L5:M5">_xlfn.TEXTSPLIT(B5, " ")</f>
+        <v>Pam</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Beesly</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>123551</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="3"/>
+        <v>CA</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="6"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>45248.70857638889</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="7"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" ref="L6:M6">_xlfn.TEXTSPLIT(B6, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>123552</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="3"/>
+        <v>PA</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="6"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45302.531921296293</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="7"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" ref="L7:M7">_xlfn.TEXTSPLIT(B7, " ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>123553</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="3"/>
+        <v>PA</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="6"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45354.687881944446</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="7"/>
+        <v>790 Pine St Chicago, IL, 60601</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" ref="L8:M8">_xlfn.TEXTSPLIT(B8, " ")</f>
+        <v>Kevin</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Malone</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>123554</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="3"/>
+        <v>IL</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="6"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45408.340810185182</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="7"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" ref="L9:M9">_xlfn.TEXTSPLIT(B9, " ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>123555</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="3"/>
+        <v>PA</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="6"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45458.743333333332</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="7"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" ref="L10:M10">_xlfn.TEXTSPLIT(B10, " ")</f>
+        <v>Stanley</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>123556</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="3"/>
+        <v>IL</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="6"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45480.608055555553</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="7"/>
+        <v>123 Elm St Los Angeles, CA, 90001</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11:M11">_xlfn.TEXTSPLIT(B11, " ")</f>
+        <v>Angela</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>123557</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="3"/>
+        <v>CA</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="6"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11">
+        <v>45455.284930555557</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="7"/>
+        <v>123 Elm St San Diego, CA, 92101</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" ref="L12:M12">_xlfn.TEXTSPLIT(B12, " ")</f>
+        <v>Dwight</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Schrute</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>123558</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="S4" t="str">
+      <c r="R12">
         <f t="shared" si="2"/>
-        <v>IL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>45173.302187499998</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="3"/>
         <v>CA</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11">
-        <v>45248.70857638889</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>PA</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45302.531921296293</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>PA</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45354.687881944446</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
+      <c r="T12">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>IL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>45408.340810185182</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>PA</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11">
-        <v>45458.743333333332</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>IL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11">
-        <v>45480.608055555553</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
+      <c r="U12">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
+      <c r="V12" t="str">
+        <f t="shared" si="6"/>
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="11">
-        <v>45455.284930555557</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>CA</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2301,20 +3603,47 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J13" t="str">
+        <f t="shared" si="7"/>
+        <v>202 Birch St Chicago, IL, 60601</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13:M13">_xlfn.TEXTSPLIT(B13, " ")</f>
+        <v>Oscar</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Martinez</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>123559</v>
+      </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="6"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2339,20 +3668,47 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J14" t="str">
+        <f t="shared" si="7"/>
+        <v>204 Birch St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14:M14">_xlfn.TEXTSPLIT(B14, " ")</f>
+        <v>Ryan</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Howard</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>123560</v>
+      </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="6"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2377,20 +3733,47 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J15" t="str">
+        <f t="shared" si="7"/>
+        <v>123 Elm St Chicago, IL, 60601</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15:M15">_xlfn.TEXTSPLIT(B15, " ")</f>
+        <v>Phyllis</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Vance</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>123561</v>
+      </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="6"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2415,20 +3798,47 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="J16" t="str">
+        <f t="shared" si="7"/>
+        <v>456 Oak St Chicago, IL, 60601</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16:M16">_xlfn.TEXTSPLIT(B16, " ")</f>
+        <v>Meredith</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Palmer</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>123562</v>
+      </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="6"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2453,20 +3863,47 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J17" t="str">
+        <f t="shared" si="7"/>
+        <v>203 Birch St Chicago, IL, 60602</v>
+      </c>
+      <c r="L17" t="str" cm="1">
+        <f t="array" ref="L17:M17">_xlfn.TEXTSPLIT(B17, " ")</f>
+        <v>Michael</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Scott</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>123563</v>
+      </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IL</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="6"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2491,20 +3928,47 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J18" t="str">
+        <f t="shared" si="7"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18:M18">_xlfn.TEXTSPLIT(B18, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>123564</v>
+      </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T18">
+        <f>FIND(",",G18) + LEN(", ")</f>
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <f>FIND(",", G18,T18)</f>
+        <v>17</v>
+      </c>
+      <c r="V18" t="str">
+        <f>MID(G18,T18,2)</f>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2529,20 +3993,47 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J19" t="str">
+        <f t="shared" si="7"/>
+        <v>456 Oak St New York, NY, 10001</v>
+      </c>
+      <c r="L19" t="str" cm="1">
+        <f t="array" ref="L19:M19">_xlfn.TEXTSPLIT(B19, " ")</f>
+        <v>Kelly</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Kapoor</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>123565</v>
+      </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NY</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T19">
+        <f t="shared" ref="T19:T20" si="8">FIND(",",G19) + LEN(", ")</f>
+        <v>11</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U20" si="9">FIND(",", G19,T19)</f>
+        <v>13</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" ref="V19:V20" si="10">MID(G19,T19,2)</f>
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2567,20 +4058,47 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="J20" t="str">
+        <f t="shared" si="7"/>
+        <v>459 Oak St Philadelphia, PA, 19101</v>
+      </c>
+      <c r="L20" t="str" cm="1">
+        <f t="array" ref="L20:M20">_xlfn.TEXTSPLIT(B20, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>123566</v>
+      </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PA</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="T20">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="10"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2605,17 +4123,286 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v>459 Oak St New York, NY, 10001</v>
+      </c>
+      <c r="L21" t="str" cm="1">
+        <f t="array" ref="L21:M21">_xlfn.TEXTSPLIT(B21, " ")</f>
+        <v>Jim</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Halpert</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>123567</v>
+      </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NY</v>
+      </c>
+      <c r="T21">
+        <f>FIND(",",G21) + LEN(", ")</f>
+        <v>11</v>
+      </c>
+      <c r="U21">
+        <f>FIND(",", G21,T21)</f>
+        <v>13</v>
+      </c>
+      <c r="V21" t="str">
+        <f>MID(G21,T21,2)</f>
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2635,23 +4422,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB134-41DE-47D5-9456-1C60C9867AFA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2680,7 +4467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2710,7 +4497,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2740,7 +4527,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -2770,7 +4557,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2800,7 +4587,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2830,7 +4617,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2860,7 +4647,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2890,7 +4677,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +4707,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2950,7 +4737,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2980,7 +4767,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +4797,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3040,7 +4827,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3070,7 +4857,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3100,7 +4887,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3130,7 +4917,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -3160,7 +4947,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3190,7 +4977,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -3220,7 +5007,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -3250,7 +5037,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3287,27 +5074,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:CD99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G33" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:J50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +5138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3394,7 +5183,7 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -3438,7 +5227,7 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3482,7 +5271,7 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +5315,7 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3570,7 +5359,7 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -3611,7 +5400,7 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3652,7 +5441,7 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3693,7 +5482,7 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3734,7 +5523,7 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3775,7 +5564,7 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3816,7 +5605,7 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3857,7 +5646,7 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3898,7 +5687,7 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3939,7 +5728,7 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3980,7 +5769,7 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4021,7 +5810,7 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4062,7 +5851,7 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +5892,7 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4144,7 +5933,7 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4185,8 +5974,781 @@
         <v>0123567</v>
       </c>
     </row>
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f>_xlfn.TEXTJOIN(",", TRUE, H2:H21)</f>
+        <v>Kafka, DataBricks, Spark, Python, GCP,Power BI, GCP, Airflow, Hadoop, R,Azure, Java, SQL, DataBricks,Kafka, DataBricks, Spark, Python, GCP,DataBricks, Hadoop, Java,Snowflake, Airflow, DataBricks,Azure, Java, SQL, DataBricks,Snowflake, Airflow, DataBricks,Scala, Azure, R, Kafka,Snowflake, Excel, Scala,Excel, Power BI, R,Scala, R, Hadoop, Power BI, SQL,Snowflake, Airflow, DataBricks,Java, Scala, R,DataBricks, Azure, Scala,Power BI, GCP, Airflow, Hadoop, R,DataBricks, Hadoop, Java,Snowflake, Power BI, Tableau, Airflow, SQL,DataBricks, Hadoop, Java,DataBricks, Hadoop, Java</v>
+      </c>
+    </row>
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H24" t="str" cm="1">
+        <f t="array" ref="H24:CD24">_xlfn.TEXTSPLIT(H23, ",")</f>
+        <v>Kafka</v>
+      </c>
+      <c r="I24" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="J24" t="str">
+        <v xml:space="preserve"> Spark</v>
+      </c>
+      <c r="K24" t="str">
+        <v xml:space="preserve"> Python</v>
+      </c>
+      <c r="L24" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="N24" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="O24" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="P24" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="Q24" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="R24" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="S24" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="T24" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="U24" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="V24" t="str">
+        <v>Kafka</v>
+      </c>
+      <c r="W24" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="X24" t="str">
+        <v xml:space="preserve"> Spark</v>
+      </c>
+      <c r="Y24" t="str">
+        <v xml:space="preserve"> Python</v>
+      </c>
+      <c r="Z24" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="AA24" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="AB24" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="AC24" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="AD24" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="AE24" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="AF24" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="AG24" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="AH24" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="AI24" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="AJ24" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="AK24" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="AL24" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="AM24" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="AN24" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="AO24" t="str">
+        <v xml:space="preserve"> Azure</v>
+      </c>
+      <c r="AP24" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="AQ24" t="str">
+        <v xml:space="preserve"> Kafka</v>
+      </c>
+      <c r="AR24" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="AS24" t="str">
+        <v xml:space="preserve"> Excel</v>
+      </c>
+      <c r="AT24" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+      <c r="AU24" t="str">
+        <v>Excel</v>
+      </c>
+      <c r="AV24" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+      <c r="AW24" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="AX24" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="AY24" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="AZ24" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="BA24" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+      <c r="BB24" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="BC24" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="BD24" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="BE24" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="BF24" t="str">
+        <v>Java</v>
+      </c>
+      <c r="BG24" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+      <c r="BH24" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="BI24" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="BJ24" t="str">
+        <v xml:space="preserve"> Azure</v>
+      </c>
+      <c r="BK24" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+      <c r="BL24" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="BM24" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="BN24" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="BO24" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="BP24" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="BQ24" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="BR24" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="BS24" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="BT24" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="BU24" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+      <c r="BV24" t="str">
+        <v xml:space="preserve"> Tableau</v>
+      </c>
+      <c r="BW24" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="BX24" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="BY24" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="BZ24" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="CA24" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="CB24" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="CC24" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="CD24" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H25" t="str" cm="1">
+        <f t="array" ref="H25:H99">TRANSPOSE(_xlfn.ANCHORARRAY(H24))</f>
+        <v>Kafka</v>
+      </c>
+    </row>
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <v xml:space="preserve"> Spark</v>
+      </c>
+    </row>
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <v xml:space="preserve"> Python</v>
+      </c>
+      <c r="I28" t="str" cm="1">
+        <f t="array" ref="I28:I50">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(H25))</f>
+        <v>Kafka</v>
+      </c>
+      <c r="J28">
+        <f>COUNTIF(_xlfn.ANCHORARRAY($H$25), I28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="I29" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J50" si="2">COUNTIF(_xlfn.ANCHORARRAY($H$25), I29)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="I30" t="str">
+        <v xml:space="preserve"> Spark</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="I31" t="str">
+        <v xml:space="preserve"> Python</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="I32" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Power BI</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="I34" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="I35" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="I36" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="I38" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <v>Kafka</v>
+      </c>
+      <c r="I39" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="I40" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <v xml:space="preserve"> Spark</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <v xml:space="preserve"> Python</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Scala</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+      <c r="I43" t="str">
+        <v xml:space="preserve"> Azure</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <v>DataBricks</v>
+      </c>
+      <c r="I44" t="str">
+        <v xml:space="preserve"> Kafka</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+      <c r="I45" t="str">
+        <v xml:space="preserve"> Excel</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+      <c r="I46" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <v>Snowflake</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Excel</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+      <c r="I48" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Java</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <v>Azure</v>
+      </c>
+      <c r="I50" t="str">
+        <v xml:space="preserve"> Tableau</v>
+      </c>
+      <c r="J50">
+        <f>COUNTIF(_xlfn.ANCHORARRAY($H$25), I50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <v>Snowflake</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <v>Scala</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <v xml:space="preserve"> Azure</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H59" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H60" t="str">
+        <v xml:space="preserve"> Kafka</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H61" t="str">
+        <v>Snowflake</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H62" t="str">
+        <v xml:space="preserve"> Excel</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H63" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H64" t="str">
+        <v>Excel</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H67" t="str">
+        <v>Scala</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H69" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H70" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72" t="str">
+        <v>Snowflake</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H73" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H74" t="str">
+        <v xml:space="preserve"> DataBricks</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H75" t="str">
+        <v>Java</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H76" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H78" t="str">
+        <v>DataBricks</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79" t="str">
+        <v xml:space="preserve"> Azure</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H80" t="str">
+        <v xml:space="preserve"> Scala</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" t="str">
+        <v>Power BI</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" t="str">
+        <v xml:space="preserve"> GCP</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" t="str">
+        <v xml:space="preserve"> R</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" t="str">
+        <v>DataBricks</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" t="str">
+        <v>Snowflake</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" t="str">
+        <v xml:space="preserve"> Power BI</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" t="str">
+        <v xml:space="preserve"> Tableau</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" t="str">
+        <v xml:space="preserve"> Airflow</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" t="str">
+        <v xml:space="preserve"> SQL</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" t="str">
+        <v>DataBricks</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" t="str">
+        <v>DataBricks</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" t="str">
+        <v xml:space="preserve"> Hadoop</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" t="str">
+        <v xml:space="preserve"> Java</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4194,23 +6756,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4241,7 +6803,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -4279,7 +6841,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -4317,7 +6879,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -4355,7 +6917,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4393,7 +6955,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4431,7 +6993,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4469,7 +7031,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4507,7 +7069,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4545,7 +7107,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4583,7 +7145,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -4621,7 +7183,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -4659,7 +7221,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -4697,7 +7259,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -4735,7 +7297,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -4773,7 +7335,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4811,7 +7373,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4849,7 +7411,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4887,7 +7449,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4925,7 +7487,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4963,7 +7525,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -5017,30 +7579,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,Data!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3,", ")</f>
         <v>Kafka</v>
@@ -5268,7 +7830,7 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -5280,7 +7842,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
@@ -5290,7 +7852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
@@ -5299,7 +7861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
@@ -5308,7 +7870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
@@ -5317,7 +7879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
@@ -5326,7 +7888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
@@ -5335,7 +7897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
@@ -5344,7 +7906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
@@ -5353,7 +7915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
@@ -5362,7 +7924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
@@ -5371,7 +7933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
@@ -5380,7 +7942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
@@ -5389,7 +7951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
@@ -5398,7 +7960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
@@ -5407,7 +7969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
@@ -5416,7 +7978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
@@ -5425,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
